--- a/data/Table_Deviance_Explained_2023-02-16.xlsx
+++ b/data/Table_Deviance_Explained_2023-02-16.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhmockrin\Box\_Workspace\6_Proj_GitHub22\La_wui\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D81EAEB-D478-4F7F-A064-F4868E8CE209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9125BDA3-DB8D-44D6-8DE4-AA8E104113CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18840" yWindow="0" windowWidth="9780" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table_Deviance_Explained_2022-0" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Supp_Table" sheetId="1" r:id="rId1"/>
+    <sheet name="Table1_Pruned" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table_Deviance_Explained_2022-0'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Supp_Table!$A$1:$P$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Table1_Pruned!$A$1:$G$30</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="160">
   <si>
     <t>Number</t>
   </si>
@@ -468,9 +470,6 @@
     <t>Euclidian distance to any road (major and minor) (m)</t>
   </si>
   <si>
-    <t>Syphard 2017</t>
-  </si>
-  <si>
     <t>build_Mean_distroad</t>
   </si>
   <si>
@@ -522,76 +521,16 @@
     <t>parcel_Imperv_P</t>
   </si>
   <si>
-    <t>Theme</t>
-  </si>
-  <si>
     <t>Deviance Explained (%)</t>
   </si>
   <si>
-    <t>Structure assessment-DINS</t>
-  </si>
-  <si>
-    <t>Year built (from parcel data)</t>
-  </si>
-  <si>
-    <t>LA County data</t>
-  </si>
-  <si>
-    <t>On-grade deck/porch materials (composite, masonry/concrete, wood, unknown, no deck/porch)</t>
-  </si>
-  <si>
-    <t>UVM</t>
-  </si>
-  <si>
-    <t>Do trees overhang building (binary)</t>
-  </si>
-  <si>
-    <t>Percent built land cover, 10 ft around building</t>
-  </si>
-  <si>
-    <t>Structure assessment-DINS; Miranda calc'd in Arc</t>
-  </si>
-  <si>
-    <t>Interpolated housing density based on a 1-km search radius NOTE - housing? Structure?</t>
-  </si>
-  <si>
-    <t>Alex's data D:\ArcGISfiles\2017_LACounty\1_Data_20200320\Data_from_Alex\dens_1kmr_ha</t>
-  </si>
-  <si>
-    <t>Euclidian distance to major road (m)</t>
-  </si>
-  <si>
-    <t>Alex's data D:\ArcGISfiles\2017_LACounty\1_Data_20200320\Data_from_Alex\dist_psroad</t>
-  </si>
-  <si>
-    <t>Aspect, 100 m around building, derived from a 30 m digital elevation model</t>
-  </si>
-  <si>
-    <t>UVM DEM and nDSM--Miranda and Dexter did this</t>
-  </si>
-  <si>
-    <t>Aspect, 30 m around building, derived from a 30 m digital elevation model</t>
-  </si>
-  <si>
-    <t>Elevation, 100 m around building, derived from a 30 m digital elevation model (ft)</t>
-  </si>
-  <si>
-    <t>Elevation, 30 m around building, derived from a 30 m digital elevation model (ft)</t>
-  </si>
-  <si>
-    <t>Percentage slope, 30 m around building, derived from a 30 m digital elevation model</t>
-  </si>
-  <si>
-    <t>Percentage slope, 100 m around building, derived from a 30 m digital elevation model</t>
-  </si>
-  <si>
-    <t>in Random Forest</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>y</t>
+    <t>Interpolated housing density based on a moving-window .1-km search radius</t>
+  </si>
+  <si>
+    <t>small_table</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -1082,7 +1021,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1091,7 +1030,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1447,10 +1385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P70"/>
+  <dimension ref="A1:P71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H73" sqref="H73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1458,10 +1396,14 @@
     <col min="1" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="23.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.5703125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="30" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="11" max="11" width="35.5703125" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1475,7 +1417,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -1483,606 +1425,363 @@
       <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="K1" t="s">
-        <v>157</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="H1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="M1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>0.06</v>
+      </c>
+      <c r="F2">
+        <v>10901</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>3</v>
-      </c>
-      <c r="N1" t="s">
-        <v>158</v>
-      </c>
-      <c r="O1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>23.22</v>
-      </c>
-      <c r="F2">
-        <v>10901</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2">
-        <v>0.06</v>
-      </c>
-      <c r="O2">
-        <v>10901</v>
-      </c>
-      <c r="P2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E3">
-        <v>0.06</v>
+        <v>0.47</v>
       </c>
       <c r="F3">
-        <v>10901</v>
+        <v>951</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="K3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" t="s">
-        <v>162</v>
-      </c>
-      <c r="N3">
-        <v>0.47</v>
-      </c>
-      <c r="O3">
-        <v>951</v>
-      </c>
-      <c r="P3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E4">
-        <v>0.47</v>
+        <v>5.36</v>
       </c>
       <c r="F4">
-        <v>951</v>
+        <v>484</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="K4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4">
-        <v>5.36</v>
-      </c>
-      <c r="O4">
-        <v>484</v>
-      </c>
-      <c r="P4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>5.36</v>
+        <v>0.16</v>
       </c>
       <c r="F5">
-        <v>484</v>
+        <v>1120</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5">
-        <v>0.16</v>
-      </c>
-      <c r="O5">
-        <v>1120</v>
-      </c>
-      <c r="P5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>0.16</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="F6">
-        <v>1120</v>
+        <v>1036</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N6">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="O6">
-        <v>1036</v>
-      </c>
-      <c r="P6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>1.1200000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="F7">
-        <v>1036</v>
+        <v>946</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7">
-        <v>0.21</v>
-      </c>
-      <c r="O7">
-        <v>946</v>
-      </c>
-      <c r="P7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>0.21</v>
+        <v>2.17</v>
       </c>
       <c r="F8">
-        <v>946</v>
+        <v>1067</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N8">
-        <v>2.17</v>
-      </c>
-      <c r="O8">
-        <v>1067</v>
-      </c>
-      <c r="P8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E9">
-        <v>2.17</v>
+        <v>0.53</v>
       </c>
       <c r="F9">
-        <v>1067</v>
+        <v>417</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>10</v>
-      </c>
-      <c r="L9" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9">
-        <v>0.53</v>
-      </c>
-      <c r="O9">
-        <v>417</v>
-      </c>
-      <c r="P9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E10">
-        <v>0.53</v>
+        <v>4.68</v>
       </c>
       <c r="F10">
-        <v>417</v>
+        <v>569</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10" t="s">
-        <v>30</v>
-      </c>
-      <c r="N10">
-        <v>4.68</v>
-      </c>
-      <c r="O10">
-        <v>569</v>
-      </c>
-      <c r="P10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E11">
-        <v>4.68</v>
+        <v>0.01</v>
       </c>
       <c r="F11">
-        <v>569</v>
+        <v>9900</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" t="s">
-        <v>160</v>
-      </c>
-      <c r="N11">
-        <v>0.01</v>
-      </c>
-      <c r="O11">
-        <v>9900</v>
-      </c>
-      <c r="P11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="E12">
-        <v>0.01</v>
+        <v>0.26</v>
       </c>
       <c r="F12">
-        <v>9900</v>
+        <v>10855</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="K12" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" t="s">
-        <v>65</v>
-      </c>
-      <c r="M12" t="s">
-        <v>164</v>
-      </c>
-      <c r="N12">
-        <v>0.26</v>
-      </c>
-      <c r="O12">
-        <v>10855</v>
-      </c>
-      <c r="P12" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E13">
-        <v>1.85</v>
+        <v>0.5</v>
       </c>
       <c r="F13">
-        <v>843</v>
+        <v>10901</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" t="s">
-        <v>34</v>
-      </c>
-      <c r="L13" t="s">
-        <v>39</v>
-      </c>
-      <c r="M13" t="s">
-        <v>40</v>
-      </c>
-      <c r="N13">
-        <v>0.5</v>
-      </c>
-      <c r="O13">
-        <v>10901</v>
-      </c>
-      <c r="P13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E14">
-        <v>0.96</v>
+        <v>0.38</v>
       </c>
       <c r="F14">
-        <v>1139</v>
+        <v>10901</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>16</v>
-      </c>
-      <c r="K14" t="s">
-        <v>34</v>
-      </c>
-      <c r="L14" t="s">
-        <v>41</v>
-      </c>
-      <c r="M14" t="s">
-        <v>42</v>
-      </c>
-      <c r="N14">
-        <v>0.38</v>
-      </c>
-      <c r="O14">
-        <v>10901</v>
-      </c>
-      <c r="P14" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E15">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F15">
         <v>10901</v>
@@ -2090,84 +1789,51 @@
       <c r="G15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K15" t="s">
-        <v>34</v>
-      </c>
-      <c r="L15" t="s">
-        <v>43</v>
-      </c>
-      <c r="M15" t="s">
-        <v>44</v>
-      </c>
-      <c r="N15">
-        <v>0.51</v>
-      </c>
-      <c r="O15">
-        <v>10901</v>
-      </c>
-      <c r="P15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E16">
-        <v>0.38</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F16">
-        <v>10901</v>
+        <v>10855</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K16" t="s">
-        <v>34</v>
-      </c>
-      <c r="L16" t="s">
-        <v>45</v>
-      </c>
-      <c r="M16" t="s">
-        <v>46</v>
-      </c>
-      <c r="N16">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="O16">
-        <v>10855</v>
-      </c>
-      <c r="P16" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E17">
-        <v>0.51</v>
+        <v>0.21</v>
       </c>
       <c r="F17">
         <v>10901</v>
@@ -2175,81 +1841,51 @@
       <c r="G17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K17" t="s">
-        <v>34</v>
-      </c>
-      <c r="L17" t="s">
-        <v>47</v>
-      </c>
-      <c r="M17" t="s">
-        <v>165</v>
-      </c>
-      <c r="N17">
-        <v>0.21</v>
-      </c>
-      <c r="O17">
-        <v>10901</v>
-      </c>
-      <c r="P17" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E18">
-        <v>0.56000000000000005</v>
+        <v>1.32</v>
       </c>
       <c r="F18">
-        <v>10855</v>
+        <v>10901</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K18" t="s">
-        <v>34</v>
-      </c>
-      <c r="L18" t="s">
-        <v>49</v>
-      </c>
-      <c r="M18" t="s">
-        <v>50</v>
-      </c>
-      <c r="N18">
-        <v>1.32</v>
-      </c>
-      <c r="O18">
-        <v>10901</v>
-      </c>
-      <c r="P18" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E19">
-        <v>0.21</v>
+        <v>0.51</v>
       </c>
       <c r="F19">
         <v>10901</v>
@@ -2257,40 +1893,25 @@
       <c r="G19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K19" t="s">
-        <v>34</v>
-      </c>
-      <c r="L19" t="s">
-        <v>51</v>
-      </c>
-      <c r="M19" t="s">
-        <v>52</v>
-      </c>
-      <c r="N19">
-        <v>0.51</v>
-      </c>
-      <c r="O19">
-        <v>10901</v>
-      </c>
-      <c r="P19" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E20">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>10901</v>
@@ -2298,40 +1919,25 @@
       <c r="G20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K20" t="s">
-        <v>34</v>
-      </c>
-      <c r="L20" t="s">
-        <v>53</v>
-      </c>
-      <c r="M20" t="s">
-        <v>54</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>10901</v>
-      </c>
-      <c r="P20" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E21">
-        <v>0.51</v>
+        <v>0.03</v>
       </c>
       <c r="F21">
         <v>10901</v>
@@ -2339,40 +1945,25 @@
       <c r="G21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K21" t="s">
-        <v>34</v>
-      </c>
-      <c r="L21" t="s">
-        <v>55</v>
-      </c>
-      <c r="M21" t="s">
-        <v>56</v>
-      </c>
-      <c r="N21">
-        <v>0.03</v>
-      </c>
-      <c r="O21">
-        <v>10901</v>
-      </c>
-      <c r="P21" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="F22">
         <v>10901</v>
@@ -2380,40 +1971,25 @@
       <c r="G22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K22" t="s">
-        <v>34</v>
-      </c>
-      <c r="L22" t="s">
-        <v>57</v>
-      </c>
-      <c r="M22" t="s">
-        <v>58</v>
-      </c>
-      <c r="N22">
-        <v>0.47</v>
-      </c>
-      <c r="O22">
-        <v>10901</v>
-      </c>
-      <c r="P22" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E23">
-        <v>0.03</v>
+        <v>0.83</v>
       </c>
       <c r="F23">
         <v>10901</v>
@@ -2421,40 +1997,25 @@
       <c r="G23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K23" t="s">
-        <v>34</v>
-      </c>
-      <c r="L23" t="s">
-        <v>59</v>
-      </c>
-      <c r="M23" t="s">
-        <v>60</v>
-      </c>
-      <c r="N23">
-        <v>0.83</v>
-      </c>
-      <c r="O23">
-        <v>10901</v>
-      </c>
-      <c r="P23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E24">
-        <v>0.47</v>
+        <v>0.02</v>
       </c>
       <c r="F24">
         <v>10901</v>
@@ -2462,204 +2023,129 @@
       <c r="G24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K24" t="s">
-        <v>34</v>
-      </c>
-      <c r="L24" t="s">
-        <v>61</v>
-      </c>
-      <c r="M24" t="s">
-        <v>62</v>
-      </c>
-      <c r="N24">
-        <v>0.02</v>
-      </c>
-      <c r="O24">
-        <v>10901</v>
-      </c>
-      <c r="P24" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E25">
-        <v>0.83</v>
+        <v>0.13</v>
       </c>
       <c r="F25">
-        <v>10901</v>
+        <v>10855</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K25" t="s">
-        <v>34</v>
-      </c>
-      <c r="L25" t="s">
-        <v>63</v>
-      </c>
-      <c r="M25" t="s">
-        <v>64</v>
-      </c>
-      <c r="N25">
-        <v>0.13</v>
-      </c>
-      <c r="O25">
-        <v>10855</v>
-      </c>
-      <c r="P25" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="E26">
-        <v>0.02</v>
+        <v>1.85</v>
       </c>
       <c r="F26">
-        <v>10901</v>
+        <v>843</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K26" t="s">
-        <v>34</v>
-      </c>
-      <c r="L26" t="s">
-        <v>35</v>
-      </c>
-      <c r="M26" t="s">
-        <v>36</v>
-      </c>
-      <c r="N26">
-        <v>1.85</v>
-      </c>
-      <c r="O26">
-        <v>843</v>
-      </c>
-      <c r="P26" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="E27">
-        <v>0.13</v>
+        <v>0.96</v>
       </c>
       <c r="F27">
-        <v>10855</v>
+        <v>1139</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" t="s">
-        <v>34</v>
-      </c>
-      <c r="L27" t="s">
-        <v>37</v>
-      </c>
-      <c r="M27" t="s">
-        <v>38</v>
-      </c>
-      <c r="N27">
-        <v>0.96</v>
-      </c>
-      <c r="O27">
-        <v>1139</v>
-      </c>
-      <c r="P27" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E28">
-        <v>0.26</v>
+        <v>6.97</v>
       </c>
       <c r="F28">
-        <v>10855</v>
+        <v>10901</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K28" t="s">
-        <v>34</v>
-      </c>
-      <c r="L28" t="s">
-        <v>67</v>
-      </c>
-      <c r="M28" t="s">
-        <v>68</v>
-      </c>
-      <c r="N28">
-        <v>6.97</v>
-      </c>
-      <c r="O28">
-        <v>10901</v>
-      </c>
-      <c r="P28" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E29">
-        <v>6.97</v>
+        <v>2.71</v>
       </c>
       <c r="F29">
         <v>10901</v>
@@ -2667,43 +2153,25 @@
       <c r="G29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K29" t="s">
-        <v>34</v>
-      </c>
-      <c r="L29" t="s">
-        <v>69</v>
-      </c>
-      <c r="M29" t="s">
-        <v>70</v>
-      </c>
-      <c r="N29">
-        <v>2.71</v>
-      </c>
-      <c r="O29">
-        <v>10901</v>
-      </c>
-      <c r="P29" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E30">
-        <v>2.71</v>
+        <v>3.22</v>
       </c>
       <c r="F30">
         <v>10901</v>
@@ -2711,40 +2179,25 @@
       <c r="G30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K30" t="s">
-        <v>34</v>
-      </c>
-      <c r="L30" t="s">
-        <v>71</v>
-      </c>
-      <c r="M30" t="s">
-        <v>72</v>
-      </c>
-      <c r="N30">
-        <v>3.22</v>
-      </c>
-      <c r="O30">
-        <v>10901</v>
-      </c>
-      <c r="P30" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E31">
-        <v>3.22</v>
+        <v>3.75</v>
       </c>
       <c r="F31">
         <v>10901</v>
@@ -2752,40 +2205,25 @@
       <c r="G31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K31" t="s">
-        <v>34</v>
-      </c>
-      <c r="L31" t="s">
-        <v>73</v>
-      </c>
-      <c r="M31" t="s">
-        <v>74</v>
-      </c>
-      <c r="N31">
-        <v>3.75</v>
-      </c>
-      <c r="O31">
-        <v>10901</v>
-      </c>
-      <c r="P31" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E32">
-        <v>3.75</v>
+        <v>0.13</v>
       </c>
       <c r="F32">
         <v>10901</v>
@@ -2793,40 +2231,25 @@
       <c r="G32" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K32" t="s">
-        <v>34</v>
-      </c>
-      <c r="L32" t="s">
-        <v>75</v>
-      </c>
-      <c r="M32" t="s">
-        <v>76</v>
-      </c>
-      <c r="N32">
-        <v>0.13</v>
-      </c>
-      <c r="O32">
-        <v>10901</v>
-      </c>
-      <c r="P32" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E33">
-        <v>0.13</v>
+        <v>1.75</v>
       </c>
       <c r="F33">
         <v>10901</v>
@@ -2834,40 +2257,25 @@
       <c r="G33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K33" t="s">
+      <c r="H33" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>34</v>
-      </c>
-      <c r="L33" t="s">
-        <v>77</v>
-      </c>
-      <c r="M33" t="s">
-        <v>78</v>
-      </c>
-      <c r="N33">
-        <v>1.75</v>
-      </c>
-      <c r="O33">
-        <v>10901</v>
-      </c>
-      <c r="P33" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E34">
-        <v>1.75</v>
+        <v>1.29</v>
       </c>
       <c r="F34">
         <v>10901</v>
@@ -2875,40 +2283,25 @@
       <c r="G34" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K34" t="s">
-        <v>34</v>
-      </c>
-      <c r="L34" t="s">
-        <v>79</v>
-      </c>
-      <c r="M34" t="s">
-        <v>80</v>
-      </c>
-      <c r="N34">
-        <v>1.29</v>
-      </c>
-      <c r="O34">
-        <v>10901</v>
-      </c>
-      <c r="P34" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E35">
-        <v>1.29</v>
+        <v>0.09</v>
       </c>
       <c r="F35">
         <v>10901</v>
@@ -2916,204 +2309,129 @@
       <c r="G35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K35" t="s">
-        <v>34</v>
-      </c>
-      <c r="L35" t="s">
-        <v>81</v>
-      </c>
-      <c r="M35" t="s">
-        <v>82</v>
-      </c>
-      <c r="N35">
-        <v>0.09</v>
-      </c>
-      <c r="O35">
-        <v>10901</v>
-      </c>
-      <c r="P35" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="E36">
-        <v>0.09</v>
+        <v>23.22</v>
       </c>
       <c r="F36">
         <v>10901</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K36" t="s">
-        <v>6</v>
-      </c>
-      <c r="L36" t="s">
-        <v>7</v>
-      </c>
-      <c r="M36" t="s">
-        <v>8</v>
-      </c>
-      <c r="N36">
-        <v>23.22</v>
-      </c>
-      <c r="O36">
-        <v>10901</v>
-      </c>
-      <c r="P36" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="E37">
-        <v>3.81</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="F37">
-        <v>10901</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K37" t="s">
-        <v>83</v>
-      </c>
-      <c r="L37" t="s">
-        <v>134</v>
-      </c>
-      <c r="M37" t="s">
-        <v>167</v>
-      </c>
-      <c r="N37">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="O37">
         <v>10828</v>
       </c>
-      <c r="P37" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G37" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="E38">
-        <v>4.99</v>
+        <v>0.15</v>
       </c>
       <c r="F38">
         <v>10901</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K38" t="s">
-        <v>83</v>
-      </c>
-      <c r="L38" t="s">
-        <v>137</v>
-      </c>
-      <c r="M38" t="s">
-        <v>138</v>
-      </c>
-      <c r="N38">
-        <v>0.15</v>
-      </c>
-      <c r="O38">
-        <v>10901</v>
-      </c>
-      <c r="P38" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G38" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H38" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="E39">
-        <v>5.38</v>
+        <v>1.28</v>
       </c>
       <c r="F39">
-        <v>10901</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K39" t="s">
-        <v>83</v>
-      </c>
-      <c r="L39" t="s">
-        <v>140</v>
-      </c>
-      <c r="M39" t="s">
-        <v>169</v>
-      </c>
-      <c r="N39">
-        <v>1.28</v>
-      </c>
-      <c r="O39">
         <v>10828</v>
       </c>
-      <c r="P39" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G39" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E40">
-        <v>2.1</v>
+        <v>3.81</v>
       </c>
       <c r="F40">
         <v>10901</v>
@@ -3121,40 +2439,25 @@
       <c r="G40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K40" t="s">
-        <v>83</v>
-      </c>
-      <c r="L40" t="s">
-        <v>84</v>
-      </c>
-      <c r="M40" t="s">
-        <v>85</v>
-      </c>
-      <c r="N40">
-        <v>3.81</v>
-      </c>
-      <c r="O40">
-        <v>10901</v>
-      </c>
-      <c r="P40" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E41">
-        <v>2.92</v>
+        <v>4.99</v>
       </c>
       <c r="F41">
         <v>10901</v>
@@ -3162,40 +2465,25 @@
       <c r="G41" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K41" t="s">
-        <v>83</v>
-      </c>
-      <c r="L41" t="s">
-        <v>86</v>
-      </c>
-      <c r="M41" t="s">
-        <v>87</v>
-      </c>
-      <c r="N41">
-        <v>4.99</v>
-      </c>
-      <c r="O41">
-        <v>10901</v>
-      </c>
-      <c r="P41" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E42">
-        <v>3.62</v>
+        <v>5.38</v>
       </c>
       <c r="F42">
         <v>10901</v>
@@ -3203,40 +2491,25 @@
       <c r="G42" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K42" t="s">
-        <v>83</v>
-      </c>
-      <c r="L42" t="s">
-        <v>88</v>
-      </c>
-      <c r="M42" t="s">
-        <v>89</v>
-      </c>
-      <c r="N42">
-        <v>5.38</v>
-      </c>
-      <c r="O42">
-        <v>10901</v>
-      </c>
-      <c r="P42" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E43">
-        <v>3.12</v>
+        <v>2.1</v>
       </c>
       <c r="F43">
         <v>10901</v>
@@ -3244,40 +2517,25 @@
       <c r="G43" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K43" t="s">
-        <v>83</v>
-      </c>
-      <c r="L43" t="s">
-        <v>90</v>
-      </c>
-      <c r="M43" t="s">
-        <v>91</v>
-      </c>
-      <c r="N43">
-        <v>2.1</v>
-      </c>
-      <c r="O43">
-        <v>10901</v>
-      </c>
-      <c r="P43" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E44">
-        <v>4.96</v>
+        <v>2.92</v>
       </c>
       <c r="F44">
         <v>10901</v>
@@ -3285,40 +2543,25 @@
       <c r="G44" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K44" t="s">
-        <v>83</v>
-      </c>
-      <c r="L44" t="s">
-        <v>92</v>
-      </c>
-      <c r="M44" t="s">
-        <v>93</v>
-      </c>
-      <c r="N44">
-        <v>2.92</v>
-      </c>
-      <c r="O44">
-        <v>10901</v>
-      </c>
-      <c r="P44" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H44" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E45">
-        <v>5.94</v>
+        <v>3.62</v>
       </c>
       <c r="F45">
         <v>10901</v>
@@ -3326,43 +2569,25 @@
       <c r="G45" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K45" t="s">
-        <v>83</v>
-      </c>
-      <c r="L45" t="s">
-        <v>94</v>
-      </c>
-      <c r="M45" t="s">
-        <v>95</v>
-      </c>
-      <c r="N45">
-        <v>3.62</v>
-      </c>
-      <c r="O45">
-        <v>10901</v>
-      </c>
-      <c r="P45" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H45" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E46">
-        <v>2.27</v>
+        <v>3.12</v>
       </c>
       <c r="F46">
         <v>10901</v>
@@ -3370,40 +2595,25 @@
       <c r="G46" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K46" t="s">
-        <v>83</v>
-      </c>
-      <c r="L46" t="s">
-        <v>96</v>
-      </c>
-      <c r="M46" t="s">
-        <v>97</v>
-      </c>
-      <c r="N46">
-        <v>3.12</v>
-      </c>
-      <c r="O46">
-        <v>10901</v>
-      </c>
-      <c r="P46" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E47">
-        <v>3.24</v>
+        <v>4.96</v>
       </c>
       <c r="F47">
         <v>10901</v>
@@ -3411,40 +2621,25 @@
       <c r="G47" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K47" t="s">
-        <v>83</v>
-      </c>
-      <c r="L47" t="s">
-        <v>98</v>
-      </c>
-      <c r="M47" t="s">
-        <v>99</v>
-      </c>
-      <c r="N47">
-        <v>4.96</v>
-      </c>
-      <c r="O47">
-        <v>10901</v>
-      </c>
-      <c r="P47" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H47" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E48">
-        <v>4.18</v>
+        <v>5.94</v>
       </c>
       <c r="F48">
         <v>10901</v>
@@ -3452,40 +2647,25 @@
       <c r="G48" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K48" t="s">
-        <v>83</v>
-      </c>
-      <c r="L48" t="s">
-        <v>100</v>
-      </c>
-      <c r="M48" t="s">
-        <v>101</v>
-      </c>
-      <c r="N48">
-        <v>5.94</v>
-      </c>
-      <c r="O48">
-        <v>10901</v>
-      </c>
-      <c r="P48" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H48" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E49">
-        <v>0.14000000000000001</v>
+        <v>2.27</v>
       </c>
       <c r="F49">
         <v>10901</v>
@@ -3493,40 +2673,25 @@
       <c r="G49" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K49" t="s">
-        <v>83</v>
-      </c>
-      <c r="L49" t="s">
-        <v>102</v>
-      </c>
-      <c r="M49" t="s">
-        <v>103</v>
-      </c>
-      <c r="N49">
-        <v>2.27</v>
-      </c>
-      <c r="O49">
-        <v>10901</v>
-      </c>
-      <c r="P49" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E50">
-        <v>0.59</v>
+        <v>3.24</v>
       </c>
       <c r="F50">
         <v>10901</v>
@@ -3534,40 +2699,25 @@
       <c r="G50" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K50" t="s">
-        <v>83</v>
-      </c>
-      <c r="L50" t="s">
-        <v>104</v>
-      </c>
-      <c r="M50" t="s">
-        <v>105</v>
-      </c>
-      <c r="N50">
-        <v>3.24</v>
-      </c>
-      <c r="O50">
-        <v>10901</v>
-      </c>
-      <c r="P50" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H50" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E51">
-        <v>1.19</v>
+        <v>4.18</v>
       </c>
       <c r="F51">
         <v>10901</v>
@@ -3575,43 +2725,25 @@
       <c r="G51" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H51" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K51" t="s">
-        <v>83</v>
-      </c>
-      <c r="L51" t="s">
-        <v>106</v>
-      </c>
-      <c r="M51" t="s">
-        <v>107</v>
-      </c>
-      <c r="N51">
-        <v>4.18</v>
-      </c>
-      <c r="O51">
-        <v>10901</v>
-      </c>
-      <c r="P51" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H51" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E52">
-        <v>2.21</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F52">
         <v>10901</v>
@@ -3619,40 +2751,25 @@
       <c r="G52" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K52" t="s">
-        <v>83</v>
-      </c>
-      <c r="L52" t="s">
-        <v>108</v>
-      </c>
-      <c r="M52" t="s">
-        <v>109</v>
-      </c>
-      <c r="N52">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="O52">
-        <v>10901</v>
-      </c>
-      <c r="P52" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E53">
-        <v>2.79</v>
+        <v>0.59</v>
       </c>
       <c r="F53">
         <v>10901</v>
@@ -3660,40 +2777,25 @@
       <c r="G53" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K53" t="s">
-        <v>83</v>
-      </c>
-      <c r="L53" t="s">
-        <v>110</v>
-      </c>
-      <c r="M53" t="s">
-        <v>111</v>
-      </c>
-      <c r="N53">
-        <v>0.59</v>
-      </c>
-      <c r="O53">
-        <v>10901</v>
-      </c>
-      <c r="P53" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H53" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E54">
-        <v>2.4</v>
+        <v>1.19</v>
       </c>
       <c r="F54">
         <v>10901</v>
@@ -3701,40 +2803,25 @@
       <c r="G54" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K54" t="s">
-        <v>83</v>
-      </c>
-      <c r="L54" t="s">
-        <v>112</v>
-      </c>
-      <c r="M54" t="s">
-        <v>113</v>
-      </c>
-      <c r="N54">
-        <v>1.19</v>
-      </c>
-      <c r="O54">
-        <v>10901</v>
-      </c>
-      <c r="P54" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H54" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E55">
-        <v>2.6</v>
+        <v>2.21</v>
       </c>
       <c r="F55">
         <v>10901</v>
@@ -3742,43 +2829,25 @@
       <c r="G55" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H55" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K55" t="s">
-        <v>83</v>
-      </c>
-      <c r="L55" t="s">
-        <v>114</v>
-      </c>
-      <c r="M55" t="s">
-        <v>115</v>
-      </c>
-      <c r="N55">
-        <v>2.21</v>
-      </c>
-      <c r="O55">
-        <v>10901</v>
-      </c>
-      <c r="P55" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E56">
-        <v>2.27</v>
+        <v>2.79</v>
       </c>
       <c r="F56">
         <v>10901</v>
@@ -3786,40 +2855,25 @@
       <c r="G56" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K56" t="s">
-        <v>83</v>
-      </c>
-      <c r="L56" t="s">
-        <v>116</v>
-      </c>
-      <c r="M56" t="s">
-        <v>117</v>
-      </c>
-      <c r="N56">
-        <v>2.79</v>
-      </c>
-      <c r="O56">
-        <v>10901</v>
-      </c>
-      <c r="P56" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H56" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E57">
-        <v>2.4700000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="F57">
         <v>10901</v>
@@ -3827,40 +2881,25 @@
       <c r="G57" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K57" t="s">
-        <v>83</v>
-      </c>
-      <c r="L57" t="s">
-        <v>118</v>
-      </c>
-      <c r="M57" t="s">
-        <v>119</v>
-      </c>
-      <c r="N57">
-        <v>2.4</v>
-      </c>
-      <c r="O57">
-        <v>10901</v>
-      </c>
-      <c r="P57" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E58">
-        <v>7.0000000000000007E-2</v>
+        <v>2.6</v>
       </c>
       <c r="F58">
         <v>10901</v>
@@ -3868,40 +2907,25 @@
       <c r="G58" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K58" t="s">
-        <v>83</v>
-      </c>
-      <c r="L58" t="s">
-        <v>120</v>
-      </c>
-      <c r="M58" t="s">
-        <v>121</v>
-      </c>
-      <c r="N58">
-        <v>2.6</v>
-      </c>
-      <c r="O58">
-        <v>10901</v>
-      </c>
-      <c r="P58" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H58" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E59">
-        <v>0.03</v>
+        <v>2.27</v>
       </c>
       <c r="F59">
         <v>10901</v>
@@ -3909,40 +2933,25 @@
       <c r="G59" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K59" t="s">
-        <v>83</v>
-      </c>
-      <c r="L59" t="s">
-        <v>122</v>
-      </c>
-      <c r="M59" t="s">
-        <v>123</v>
-      </c>
-      <c r="N59">
-        <v>2.27</v>
-      </c>
-      <c r="O59">
-        <v>10901</v>
-      </c>
-      <c r="P59" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E60">
-        <v>0.04</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="F60">
         <v>10901</v>
@@ -3950,40 +2959,25 @@
       <c r="G60" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K60" t="s">
-        <v>83</v>
-      </c>
-      <c r="L60" t="s">
-        <v>124</v>
-      </c>
-      <c r="M60" t="s">
-        <v>125</v>
-      </c>
-      <c r="N60">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="O60">
-        <v>10901</v>
-      </c>
-      <c r="P60" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H60" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E61">
-        <v>0.31</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F61">
         <v>10901</v>
@@ -3991,409 +2985,258 @@
       <c r="G61" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K61" t="s">
-        <v>83</v>
-      </c>
-      <c r="L61" t="s">
-        <v>126</v>
-      </c>
-      <c r="M61" t="s">
-        <v>127</v>
-      </c>
-      <c r="N61">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="O61">
-        <v>10901</v>
-      </c>
-      <c r="P61" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H61" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E62">
-        <v>2.2400000000000002</v>
+        <v>0.03</v>
       </c>
       <c r="F62">
-        <v>10828</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K62" t="s">
-        <v>83</v>
-      </c>
-      <c r="L62" t="s">
-        <v>128</v>
-      </c>
-      <c r="M62" t="s">
-        <v>129</v>
-      </c>
-      <c r="N62">
-        <v>0.03</v>
-      </c>
-      <c r="O62">
-        <v>10901</v>
-      </c>
-      <c r="P62" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+        <v>10901</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E63">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="F63">
         <v>10901</v>
       </c>
-      <c r="G63" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="K63" t="s">
-        <v>83</v>
-      </c>
-      <c r="L63" t="s">
-        <v>130</v>
-      </c>
-      <c r="M63" t="s">
-        <v>131</v>
-      </c>
-      <c r="N63">
-        <v>0.04</v>
-      </c>
-      <c r="O63">
-        <v>10901</v>
-      </c>
-      <c r="P63" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D64" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E64">
+        <v>0.31</v>
+      </c>
+      <c r="F64">
+        <v>10901</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H64" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>66</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E64">
-        <v>1.28</v>
-      </c>
-      <c r="F64">
-        <v>10828</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="K64" t="s">
-        <v>83</v>
-      </c>
-      <c r="L64" t="s">
-        <v>132</v>
-      </c>
-      <c r="M64" t="s">
-        <v>133</v>
-      </c>
-      <c r="N64">
-        <v>0.31</v>
-      </c>
-      <c r="O64">
-        <v>10901</v>
-      </c>
-      <c r="P64" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
+      <c r="C65" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E65">
+        <v>0.18</v>
+      </c>
+      <c r="F65">
+        <v>10901</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B66" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="E66">
+        <v>0.1</v>
+      </c>
+      <c r="F66">
+        <v>10901</v>
+      </c>
+      <c r="G66" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E65">
-        <v>0.1</v>
-      </c>
-      <c r="F65">
-        <v>10901</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="K65" t="s">
-        <v>142</v>
-      </c>
-      <c r="L65" t="s">
-        <v>146</v>
-      </c>
-      <c r="M65" t="s">
-        <v>171</v>
-      </c>
-      <c r="N65">
-        <v>0.18</v>
-      </c>
-      <c r="O65">
-        <v>10901</v>
-      </c>
-      <c r="P65" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>66</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D66" s="1" t="s">
+      <c r="H66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>68</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E67">
+        <v>0.04</v>
+      </c>
+      <c r="F67">
+        <v>10901</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H67" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E66">
-        <v>0.18</v>
-      </c>
-      <c r="F66">
-        <v>10901</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K66" t="s">
-        <v>142</v>
-      </c>
-      <c r="L66" t="s">
-        <v>143</v>
-      </c>
-      <c r="M66" t="s">
-        <v>173</v>
-      </c>
-      <c r="N66">
-        <v>0.1</v>
-      </c>
-      <c r="O66">
-        <v>10901</v>
-      </c>
-      <c r="P66" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>67</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C67" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E67">
+      <c r="E68">
         <v>0.06</v>
       </c>
-      <c r="F67">
-        <v>10901</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K67" t="s">
-        <v>142</v>
-      </c>
-      <c r="L67" t="s">
-        <v>150</v>
-      </c>
-      <c r="M67" t="s">
-        <v>174</v>
-      </c>
-      <c r="N67">
-        <v>0.04</v>
-      </c>
-      <c r="O67">
-        <v>10901</v>
-      </c>
-      <c r="P67" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>68</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D68" s="1" t="s">
+      <c r="F68">
+        <v>10901</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H68" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>70</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E69">
+        <v>4.54</v>
+      </c>
+      <c r="F69">
+        <v>10901</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E68">
-        <v>0.04</v>
-      </c>
-      <c r="F68">
-        <v>10901</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="K68" t="s">
-        <v>142</v>
-      </c>
-      <c r="L68" t="s">
-        <v>148</v>
-      </c>
-      <c r="M68" t="s">
-        <v>175</v>
-      </c>
-      <c r="N68">
-        <v>0.06</v>
-      </c>
-      <c r="O68">
-        <v>10901</v>
-      </c>
-      <c r="P68" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>69</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C69" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E69">
+      <c r="E70">
         <v>3.59</v>
       </c>
-      <c r="F69">
-        <v>10901</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K69" t="s">
-        <v>142</v>
-      </c>
-      <c r="L69" t="s">
-        <v>154</v>
-      </c>
-      <c r="M69" t="s">
-        <v>177</v>
-      </c>
-      <c r="N69">
-        <v>4.54</v>
-      </c>
-      <c r="O69">
-        <v>10901</v>
-      </c>
-      <c r="P69" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>70</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E70">
-        <v>4.54</v>
-      </c>
       <c r="F70">
         <v>10901</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="K70" t="s">
-        <v>142</v>
-      </c>
-      <c r="L70" t="s">
-        <v>152</v>
-      </c>
-      <c r="M70" t="s">
-        <v>176</v>
-      </c>
-      <c r="N70">
-        <v>3.59</v>
-      </c>
-      <c r="O70">
-        <v>10901</v>
-      </c>
-      <c r="P70" t="s">
-        <v>172</v>
+        <v>144</v>
+      </c>
+      <c r="H70" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H71">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G70">
-    <sortCondition ref="A2:A70"/>
+  <autoFilter ref="A1:P70" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P70">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P70">
+    <sortCondition ref="B2:B70"/>
+    <sortCondition ref="C2:C70"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4401,11 +3244,724 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE807320-A260-499A-8979-03BD137E6C28}">
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>23.22</v>
+      </c>
+      <c r="F2">
+        <v>10901</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>0.06</v>
+      </c>
+      <c r="F3">
+        <v>10901</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>0.47</v>
+      </c>
+      <c r="F4">
+        <v>951</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>5.36</v>
+      </c>
+      <c r="F5">
+        <v>484</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>0.16</v>
+      </c>
+      <c r="F6">
+        <v>1120</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F7">
+        <v>1036</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>0.21</v>
+      </c>
+      <c r="F8">
+        <v>946</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>2.17</v>
+      </c>
+      <c r="F9">
+        <v>1067</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10">
+        <v>0.53</v>
+      </c>
+      <c r="F10">
+        <v>417</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <v>4.68</v>
+      </c>
+      <c r="F11">
+        <v>569</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12">
+        <v>0.01</v>
+      </c>
+      <c r="F12">
+        <v>9900</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13">
+        <v>0.5</v>
+      </c>
+      <c r="F13">
+        <v>10901</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14">
+        <v>0.38</v>
+      </c>
+      <c r="F14">
+        <v>10901</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15">
+        <v>0.51</v>
+      </c>
+      <c r="F15">
+        <v>10901</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F16">
+        <v>10855</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17">
+        <v>6.97</v>
+      </c>
+      <c r="F17">
+        <v>10901</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18">
+        <v>3.62</v>
+      </c>
+      <c r="F18">
+        <v>10901</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19">
+        <v>5.94</v>
+      </c>
+      <c r="F19">
+        <v>10901</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>48</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20">
+        <v>4.18</v>
+      </c>
+      <c r="F20">
+        <v>10901</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>51</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21">
+        <v>1.19</v>
+      </c>
+      <c r="F21">
+        <v>10901</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>53</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22">
+        <v>2.79</v>
+      </c>
+      <c r="F22">
+        <v>10901</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>55</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23">
+        <v>2.6</v>
+      </c>
+      <c r="F23">
+        <v>10901</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>58</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F24">
+        <v>10901</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>61</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E25">
+        <v>0.31</v>
+      </c>
+      <c r="F25">
+        <v>10901</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>62</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E26">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F26">
+        <v>10828</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>64</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27">
+        <v>1.28</v>
+      </c>
+      <c r="F27">
+        <v>10828</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>66</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28">
+        <v>0.18</v>
+      </c>
+      <c r="F28">
+        <v>10901</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>67</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E29">
+        <v>0.06</v>
+      </c>
+      <c r="F29">
+        <v>10901</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>69</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E30">
+        <v>3.59</v>
+      </c>
+      <c r="F30">
+        <v>10901</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G30" xr:uid="{AE807320-A260-499A-8979-03BD137E6C28}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G30">
+      <sortCondition ref="A1:A30"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57DE520-C012-4F29-9452-1F580DFA13A5}">
   <dimension ref="A1:A48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4527,7 +4083,7 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
